--- a/outputs/Fatal_rate_ranges_F.xlsx
+++ b/outputs/Fatal_rate_ranges_F.xlsx
@@ -121,19 +121,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2.962560534169665</v>
+        <v>2.970799146445846</v>
       </c>
       <c r="C2" t="n">
-        <v>1.5674935867795177</v>
+        <v>1.57107143813985</v>
       </c>
       <c r="D2" t="n">
-        <v>2.3325230611768712</v>
+        <v>2.3303211110358815</v>
       </c>
       <c r="E2" t="n">
-        <v>1.3313060556021428</v>
+        <v>1.3298167112931418</v>
       </c>
       <c r="F2" t="n">
-        <v>2.006886993175606</v>
+        <v>2.0089860832327555</v>
       </c>
     </row>
     <row r="3">
@@ -141,19 +141,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.891516800048864</v>
+        <v>1.8846314903158952</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0648075841516695</v>
+        <v>1.0630768259903467</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5531193371004324</v>
+        <v>1.5379790665258986</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8719975678330573</v>
+        <v>0.8659907977156301</v>
       </c>
       <c r="F3" t="n">
-        <v>1.3344635963809002</v>
+        <v>1.3270974437055876</v>
       </c>
     </row>
     <row r="4">
@@ -161,19 +161,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4.448984316112637</v>
+        <v>4.453504793191121</v>
       </c>
       <c r="C4" t="n">
-        <v>3.927894142567451</v>
+        <v>3.9671267037590416</v>
       </c>
       <c r="D4" t="n">
-        <v>6.926845380496725</v>
+        <v>6.901148194399995</v>
       </c>
       <c r="E4" t="n">
-        <v>4.758860179258921</v>
+        <v>4.7267056104673175</v>
       </c>
       <c r="F4" t="n">
-        <v>4.62903025019792</v>
+        <v>4.633686914615585</v>
       </c>
     </row>
     <row r="5">
@@ -181,19 +181,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1.5525958975042717</v>
+        <v>1.5947248364128699</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9331883348846528</v>
+        <v>0.9589855565444242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.775819467509275</v>
+        <v>0.8111532327724186</v>
       </c>
       <c r="E5" t="n">
-        <v>0.26685980495821976</v>
+        <v>0.2792131451450701</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6496342726143073</v>
+        <v>0.672189561062468</v>
       </c>
     </row>
     <row r="6">
@@ -201,19 +201,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>18.90318760300241</v>
+        <v>18.925107868298127</v>
       </c>
       <c r="C6" t="n">
-        <v>15.811517149508518</v>
+        <v>15.68337581873058</v>
       </c>
       <c r="D6" t="n">
-        <v>14.071560350137005</v>
+        <v>14.076557250658121</v>
       </c>
       <c r="E6" t="n">
-        <v>11.635573368479653</v>
+        <v>11.540664481454225</v>
       </c>
       <c r="F6" t="n">
-        <v>14.44676612336857</v>
+        <v>14.375044304085971</v>
       </c>
     </row>
     <row r="7">
@@ -221,19 +221,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>5.724945267042531</v>
+        <v>5.840738827414417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5761714068301534</v>
+        <v>0.5945630459208275</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7536571309571567</v>
+        <v>0.7672376332875249</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25821845274611066</v>
+        <v>0.2684700519570649</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4645489042004606</v>
+        <v>0.4779408192309467</v>
       </c>
     </row>
   </sheetData>
@@ -272,19 +272,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2.963080078292737</v>
+        <v>2.96716688444616</v>
       </c>
       <c r="C2" t="n">
-        <v>1.5654410480953627</v>
+        <v>1.5711254809423933</v>
       </c>
       <c r="D2" t="n">
-        <v>2.3315139739491877</v>
+        <v>2.324977510073717</v>
       </c>
       <c r="E2" t="n">
-        <v>1.3291973859327082</v>
+        <v>1.3292225323318299</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0055286797037515</v>
+        <v>2.007775214165186</v>
       </c>
     </row>
     <row r="3">
@@ -292,19 +292,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.8621385891162487</v>
+        <v>1.8617421591383885</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03928279879506</v>
+        <v>1.0498195215993062</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5336839559134972</v>
+        <v>1.51270550755885</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8566071351253881</v>
+        <v>0.8463710637969333</v>
       </c>
       <c r="F3" t="n">
-        <v>1.3086642083853632</v>
+        <v>1.3124956237675443</v>
       </c>
     </row>
     <row r="4">
@@ -312,19 +312,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4.344216513298032</v>
+        <v>4.338385416086366</v>
       </c>
       <c r="C4" t="n">
-        <v>3.8219356805858347</v>
+        <v>3.8445631647848204</v>
       </c>
       <c r="D4" t="n">
-        <v>6.779029464389164</v>
+        <v>6.699666831921877</v>
       </c>
       <c r="E4" t="n">
-        <v>4.6512485740713885</v>
+        <v>4.550880631310642</v>
       </c>
       <c r="F4" t="n">
-        <v>4.5452533117558165</v>
+        <v>4.515992398601762</v>
       </c>
     </row>
     <row r="5">
@@ -332,19 +332,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9622851198817239</v>
+        <v>0.9885965323552843</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5775950542553581</v>
+        <v>0.6003738294420051</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4814792608751813</v>
+        <v>0.4972795756989966</v>
       </c>
       <c r="E5" t="n">
-        <v>0.16276482718432825</v>
+        <v>0.17429588942412205</v>
       </c>
       <c r="F5" t="n">
-        <v>0.40368165529818284</v>
+        <v>0.4174828585392968</v>
       </c>
     </row>
     <row r="6">
@@ -352,19 +352,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>18.606496682361765</v>
+        <v>18.50401614543784</v>
       </c>
       <c r="C6" t="n">
-        <v>15.658024836196848</v>
+        <v>15.312502981360652</v>
       </c>
       <c r="D6" t="n">
-        <v>13.797682332821946</v>
+        <v>13.788056486009205</v>
       </c>
       <c r="E6" t="n">
-        <v>11.440780344052257</v>
+        <v>11.312903147918279</v>
       </c>
       <c r="F6" t="n">
-        <v>14.247570768288398</v>
+        <v>14.114635363994097</v>
       </c>
     </row>
     <row r="7">
@@ -372,19 +372,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>4.657327505950608</v>
+        <v>4.849757928099631</v>
       </c>
       <c r="C7" t="n">
-        <v>0.48632293682012084</v>
+        <v>0.5052206301935034</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6478849166336692</v>
+        <v>0.6805213108458479</v>
       </c>
       <c r="E7" t="n">
-        <v>0.22627103309017504</v>
+        <v>0.22960223494699897</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4072199148288793</v>
+        <v>0.42563703976178335</v>
       </c>
     </row>
   </sheetData>
@@ -423,19 +423,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2.8072503077539683</v>
+        <v>2.817758129928051</v>
       </c>
       <c r="C2" t="n">
-        <v>1.4415413470020733</v>
+        <v>1.4486490379056953</v>
       </c>
       <c r="D2" t="n">
-        <v>2.168587047878941</v>
+        <v>2.1582719766327663</v>
       </c>
       <c r="E2" t="n">
-        <v>1.2388663967876379</v>
+        <v>1.2342195529004591</v>
       </c>
       <c r="F2" t="n">
-        <v>1.935791904739797</v>
+        <v>1.941881840041829</v>
       </c>
     </row>
     <row r="3">
@@ -443,19 +443,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.4140472959660706</v>
+        <v>1.3937416694173876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7833948096088745</v>
+        <v>0.761637545032394</v>
       </c>
       <c r="D3" t="n">
-        <v>1.1384297955708516</v>
+        <v>1.1091791564135702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6251271310567653</v>
+        <v>0.6438191552950536</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0072963933830745</v>
+        <v>0.9996513936563249</v>
       </c>
     </row>
     <row r="4">
@@ -463,19 +463,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>3.152988304493197</v>
+        <v>3.124754166564874</v>
       </c>
       <c r="C4" t="n">
-        <v>2.7204783466937075</v>
+        <v>2.732129363528916</v>
       </c>
       <c r="D4" t="n">
-        <v>4.616191137346834</v>
+        <v>4.650213500657741</v>
       </c>
       <c r="E4" t="n">
-        <v>3.1451053543454375</v>
+        <v>3.0912923312580824</v>
       </c>
       <c r="F4" t="n">
-        <v>3.2976383414854116</v>
+        <v>3.2943223242067625</v>
       </c>
     </row>
     <row r="5">
@@ -483,19 +483,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17146379282877663</v>
+        <v>0.17737568184684308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10401345854431904</v>
+        <v>0.10309422411171226</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09355550504242513</v>
+        <v>0.08492534284362739</v>
       </c>
       <c r="E5" t="n">
-        <v>0.030657922603405222</v>
+        <v>0.03140606852404252</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07502547278552392</v>
+        <v>0.07235154113622097</v>
       </c>
     </row>
     <row r="6">
@@ -503,19 +503,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>13.961123280327156</v>
+        <v>14.16252161823803</v>
       </c>
       <c r="C6" t="n">
-        <v>12.060122440149478</v>
+        <v>11.995136588355393</v>
       </c>
       <c r="D6" t="n">
-        <v>10.19668662215324</v>
+        <v>10.117881204829077</v>
       </c>
       <c r="E6" t="n">
-        <v>8.85573688790719</v>
+        <v>8.756593900992096</v>
       </c>
       <c r="F6" t="n">
-        <v>11.307555681504077</v>
+        <v>11.242455311728442</v>
       </c>
     </row>
     <row r="7">
@@ -523,19 +523,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.6219595466035022</v>
+        <v>1.6582925778477737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1915650681450694</v>
+        <v>0.19968249501739788</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2548019578701274</v>
+        <v>0.2778208147672307</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08944588499560287</v>
+        <v>0.09664912878100809</v>
       </c>
       <c r="F7" t="n">
-        <v>0.17874723424190556</v>
+        <v>0.18863285259095558</v>
       </c>
     </row>
   </sheetData>
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>3.119974979924503</v>
+        <v>3.131757747416392</v>
       </c>
       <c r="C2" t="n">
-        <v>1.6971017865004145</v>
+        <v>1.6944868859743338</v>
       </c>
       <c r="D2" t="n">
-        <v>2.4904450076790807</v>
+        <v>2.497551545450613</v>
       </c>
       <c r="E2" t="n">
-        <v>1.4315524573388676</v>
+        <v>1.4320690930631088</v>
       </c>
       <c r="F2" t="n">
-        <v>2.07325890189109</v>
+        <v>2.0794759662704028</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.467122777011863</v>
+        <v>2.4789029300539323</v>
       </c>
       <c r="C3" t="n">
-        <v>1.4131076706390542</v>
+        <v>1.4070766249613753</v>
       </c>
       <c r="D3" t="n">
-        <v>2.06046592493207</v>
+        <v>2.057258884271586</v>
       </c>
       <c r="E3" t="n">
-        <v>1.1525716739221648</v>
+        <v>1.1451659268433625</v>
       </c>
       <c r="F3" t="n">
-        <v>1.71367963847604</v>
+        <v>1.7323397036517423</v>
       </c>
     </row>
     <row r="4">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>6.097657838220589</v>
+        <v>6.2353503397922605</v>
       </c>
       <c r="C4" t="n">
-        <v>5.431446521802004</v>
+        <v>5.527993889478611</v>
       </c>
       <c r="D4" t="n">
-        <v>9.523276644274134</v>
+        <v>10.033274128363107</v>
       </c>
       <c r="E4" t="n">
-        <v>6.7138663030738</v>
+        <v>6.9030856233914015</v>
       </c>
       <c r="F4" t="n">
-        <v>6.239596834509833</v>
+        <v>6.401123239510027</v>
       </c>
     </row>
     <row r="5">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>5.101297700826842</v>
+        <v>4.771708450540719</v>
       </c>
       <c r="C5" t="n">
-        <v>3.161220678856096</v>
+        <v>2.795811483244036</v>
       </c>
       <c r="D5" t="n">
-        <v>2.503158583540936</v>
+        <v>2.4215171485944103</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8781000041067557</v>
+        <v>0.8283143113179511</v>
       </c>
       <c r="F5" t="n">
-        <v>2.169125524541044</v>
+        <v>1.946903732189385</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>24.55662066756968</v>
+        <v>24.957808005007887</v>
       </c>
       <c r="C6" t="n">
-        <v>20.221909314635727</v>
+        <v>20.299967532874113</v>
       </c>
       <c r="D6" t="n">
-        <v>18.853564242181193</v>
+        <v>19.018535242102548</v>
       </c>
       <c r="E6" t="n">
-        <v>15.199304352234156</v>
+        <v>14.947949972649086</v>
       </c>
       <c r="F6" t="n">
-        <v>18.34123331809148</v>
+        <v>18.17958191629393</v>
       </c>
     </row>
     <row r="7">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>12.796864624306634</v>
+        <v>13.34561899965087</v>
       </c>
       <c r="C7" t="n">
-        <v>1.217547914127121</v>
+        <v>1.2742312334757318</v>
       </c>
       <c r="D7" t="n">
-        <v>1.587896431011768</v>
+        <v>1.5646607295286514</v>
       </c>
       <c r="E7" t="n">
-        <v>0.549499083767518</v>
+        <v>0.6087239691317426</v>
       </c>
       <c r="F7" t="n">
-        <v>0.921412624898724</v>
+        <v>1.002156429802938</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/Fatal_rate_ranges_F.xlsx
+++ b/outputs/Fatal_rate_ranges_F.xlsx
@@ -35,10 +35,10 @@
     <t>car/taxi</t>
   </si>
   <si>
-    <t>light goods</t>
-  </si>
-  <si>
-    <t>heavy goods</t>
+    <t>van</t>
+  </si>
+  <si>
+    <t>lorry</t>
   </si>
   <si>
     <t>motorcycle</t>
@@ -121,19 +121,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2.970799146445846</v>
+        <v>2.967330591485387</v>
       </c>
       <c r="C2" t="n">
-        <v>1.57107143813985</v>
+        <v>1.572154356438868</v>
       </c>
       <c r="D2" t="n">
-        <v>2.3303211110358815</v>
+        <v>2.331115657530493</v>
       </c>
       <c r="E2" t="n">
-        <v>1.3298167112931418</v>
+        <v>1.3276926034946215</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0089860832327555</v>
+        <v>2.0077068422803177</v>
       </c>
     </row>
     <row r="3">
@@ -141,19 +141,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.8846314903158952</v>
+        <v>1.8884764605965445</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0630768259903467</v>
+        <v>1.073521283726366</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5379790665258986</v>
+        <v>1.5430219092042556</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8659907977156301</v>
+        <v>0.8696898463479509</v>
       </c>
       <c r="F3" t="n">
-        <v>1.3270974437055876</v>
+        <v>1.3322570700669945</v>
       </c>
     </row>
     <row r="4">
@@ -161,19 +161,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4.453504793191121</v>
+        <v>4.489380915224699</v>
       </c>
       <c r="C4" t="n">
-        <v>3.9671267037590416</v>
+        <v>3.9658562595259026</v>
       </c>
       <c r="D4" t="n">
-        <v>6.901148194399995</v>
+        <v>6.885556875025202</v>
       </c>
       <c r="E4" t="n">
-        <v>4.7267056104673175</v>
+        <v>4.715036952981986</v>
       </c>
       <c r="F4" t="n">
-        <v>4.633686914615585</v>
+        <v>4.65299756713466</v>
       </c>
     </row>
     <row r="5">
@@ -181,19 +181,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1.5947248364128699</v>
+        <v>1.530153226496554</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9589855565444242</v>
+        <v>0.9099386208418274</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8111532327724186</v>
+        <v>0.7617813104174076</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2792131451450701</v>
+        <v>0.2619264799458266</v>
       </c>
       <c r="F5" t="n">
-        <v>0.672189561062468</v>
+        <v>0.6375000049661662</v>
       </c>
     </row>
     <row r="6">
@@ -201,19 +201,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>18.925107868298127</v>
+        <v>18.91264674909875</v>
       </c>
       <c r="C6" t="n">
-        <v>15.68337581873058</v>
+        <v>15.892451230399145</v>
       </c>
       <c r="D6" t="n">
-        <v>14.076557250658121</v>
+        <v>14.110878657838642</v>
       </c>
       <c r="E6" t="n">
-        <v>11.540664481454225</v>
+        <v>11.585507983853423</v>
       </c>
       <c r="F6" t="n">
-        <v>14.375044304085971</v>
+        <v>14.456107026260627</v>
       </c>
     </row>
     <row r="7">
@@ -221,19 +221,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>5.840738827414417</v>
+        <v>5.77432994056328</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5945630459208275</v>
+        <v>0.5964434916318531</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7672376332875249</v>
+        <v>0.7990041624664719</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2684700519570649</v>
+        <v>0.2736051279665286</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4779408192309467</v>
+        <v>0.48660212009861353</v>
       </c>
     </row>
   </sheetData>
@@ -272,19 +272,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2.96716688444616</v>
+        <v>2.9688824908236</v>
       </c>
       <c r="C2" t="n">
-        <v>1.5711254809423933</v>
+        <v>1.5751364784404562</v>
       </c>
       <c r="D2" t="n">
-        <v>2.324977510073717</v>
+        <v>2.325591326820291</v>
       </c>
       <c r="E2" t="n">
-        <v>1.3292225323318299</v>
+        <v>1.3257113673321643</v>
       </c>
       <c r="F2" t="n">
-        <v>2.007775214165186</v>
+        <v>2.007834583155332</v>
       </c>
     </row>
     <row r="3">
@@ -292,19 +292,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.8617421591383885</v>
+        <v>1.8583336564066275</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0498195215993062</v>
+        <v>1.0416938770681399</v>
       </c>
       <c r="D3" t="n">
-        <v>1.51270550755885</v>
+        <v>1.51394803778331</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8463710637969333</v>
+        <v>0.8534775964112733</v>
       </c>
       <c r="F3" t="n">
-        <v>1.3124956237675443</v>
+        <v>1.3079806389195228</v>
       </c>
     </row>
     <row r="4">
@@ -312,19 +312,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4.338385416086366</v>
+        <v>4.3711678787806125</v>
       </c>
       <c r="C4" t="n">
-        <v>3.8445631647848204</v>
+        <v>3.888904226441387</v>
       </c>
       <c r="D4" t="n">
-        <v>6.699666831921877</v>
+        <v>6.742130616565655</v>
       </c>
       <c r="E4" t="n">
-        <v>4.550880631310642</v>
+        <v>4.622401542894465</v>
       </c>
       <c r="F4" t="n">
-        <v>4.515992398601762</v>
+        <v>4.564394847458054</v>
       </c>
     </row>
     <row r="5">
@@ -332,19 +332,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9885965323552843</v>
+        <v>0.9508879781216066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6003738294420051</v>
+        <v>0.5650544840536169</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4972795756989966</v>
+        <v>0.4786222382546181</v>
       </c>
       <c r="E5" t="n">
-        <v>0.17429588942412205</v>
+        <v>0.16345406325793554</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4174828585392968</v>
+        <v>0.3960897116547871</v>
       </c>
     </row>
     <row r="6">
@@ -352,19 +352,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>18.50401614543784</v>
+        <v>18.553754299725135</v>
       </c>
       <c r="C6" t="n">
-        <v>15.312502981360652</v>
+        <v>15.600868472710701</v>
       </c>
       <c r="D6" t="n">
-        <v>13.788056486009205</v>
+        <v>13.79691699714919</v>
       </c>
       <c r="E6" t="n">
-        <v>11.312903147918279</v>
+        <v>11.409630988202363</v>
       </c>
       <c r="F6" t="n">
-        <v>14.114635363994097</v>
+        <v>14.240512272954453</v>
       </c>
     </row>
     <row r="7">
@@ -372,19 +372,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>4.849757928099631</v>
+        <v>4.788124047237519</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5052206301935034</v>
+        <v>0.5187953539396203</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6805213108458479</v>
+        <v>0.6906228565394069</v>
       </c>
       <c r="E7" t="n">
-        <v>0.22960223494699897</v>
+        <v>0.2366347187545119</v>
       </c>
       <c r="F7" t="n">
-        <v>0.42563703976178335</v>
+        <v>0.4342338821864423</v>
       </c>
     </row>
   </sheetData>
@@ -423,19 +423,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2.817758129928051</v>
+        <v>2.8065431985808234</v>
       </c>
       <c r="C2" t="n">
-        <v>1.4486490379056953</v>
+        <v>1.4522533401944457</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1582719766327663</v>
+        <v>2.1645677544684423</v>
       </c>
       <c r="E2" t="n">
-        <v>1.2342195529004591</v>
+        <v>1.235478499149242</v>
       </c>
       <c r="F2" t="n">
-        <v>1.941881840041829</v>
+        <v>1.9400439699452396</v>
       </c>
     </row>
     <row r="3">
@@ -443,19 +443,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.3937416694173876</v>
+        <v>1.3956634962249779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.761637545032394</v>
+        <v>0.789513207206368</v>
       </c>
       <c r="D3" t="n">
-        <v>1.1091791564135702</v>
+        <v>1.128458966099467</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6438191552950536</v>
+        <v>0.6348784545675036</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9996513936563249</v>
+        <v>0.9993417248253278</v>
       </c>
     </row>
     <row r="4">
@@ -463,19 +463,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>3.124754166564874</v>
+        <v>3.1549331294461815</v>
       </c>
       <c r="C4" t="n">
-        <v>2.732129363528916</v>
+        <v>2.7084125601633673</v>
       </c>
       <c r="D4" t="n">
-        <v>4.650213500657741</v>
+        <v>4.660763384434445</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0912923312580824</v>
+        <v>3.1445295569379432</v>
       </c>
       <c r="F4" t="n">
-        <v>3.2943223242067625</v>
+        <v>3.282112394512766</v>
       </c>
     </row>
     <row r="5">
@@ -483,19 +483,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17737568184684308</v>
+        <v>0.19896259211327433</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10309422411171226</v>
+        <v>0.12227519789536709</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08492534284362739</v>
+        <v>0.10232724740560545</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03140606852404252</v>
+        <v>0.03381533253926477</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07235154113622097</v>
+        <v>0.08553988996918686</v>
       </c>
     </row>
     <row r="6">
@@ -503,19 +503,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>14.16252161823803</v>
+        <v>14.221861010692573</v>
       </c>
       <c r="C6" t="n">
-        <v>11.995136588355393</v>
+        <v>12.13455804716933</v>
       </c>
       <c r="D6" t="n">
-        <v>10.117881204829077</v>
+        <v>10.17562608888569</v>
       </c>
       <c r="E6" t="n">
-        <v>8.756593900992096</v>
+        <v>8.779454991823009</v>
       </c>
       <c r="F6" t="n">
-        <v>11.242455311728442</v>
+        <v>11.255807640233702</v>
       </c>
     </row>
     <row r="7">
@@ -523,19 +523,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.6582925778477737</v>
+        <v>1.8545870468950356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.19968249501739788</v>
+        <v>0.1951394520213546</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2778208147672307</v>
+        <v>0.26737655517164854</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09664912878100809</v>
+        <v>0.09669112461449791</v>
       </c>
       <c r="F7" t="n">
-        <v>0.18863285259095558</v>
+        <v>0.191243632229466</v>
       </c>
     </row>
   </sheetData>
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>3.131757747416392</v>
+        <v>3.1299293353803437</v>
       </c>
       <c r="C2" t="n">
-        <v>1.6944868859743338</v>
+        <v>1.6950859832955394</v>
       </c>
       <c r="D2" t="n">
-        <v>2.497551545450613</v>
+        <v>2.5084591676743</v>
       </c>
       <c r="E2" t="n">
-        <v>1.4320690930631088</v>
+        <v>1.4236650790520728</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0794759662704028</v>
+        <v>2.0774558933952383</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.4789029300539323</v>
+        <v>2.456842359046504</v>
       </c>
       <c r="C3" t="n">
-        <v>1.4070766249613753</v>
+        <v>1.4596836803751954</v>
       </c>
       <c r="D3" t="n">
-        <v>2.057258884271586</v>
+        <v>2.0670007277378395</v>
       </c>
       <c r="E3" t="n">
-        <v>1.1451659268433625</v>
+        <v>1.1603756792223459</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7323397036517423</v>
+        <v>1.722506138432508</v>
       </c>
     </row>
     <row r="4">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>6.2353503397922605</v>
+        <v>6.075392802512143</v>
       </c>
       <c r="C4" t="n">
-        <v>5.527993889478611</v>
+        <v>5.511009453625714</v>
       </c>
       <c r="D4" t="n">
-        <v>10.033274128363107</v>
+        <v>9.629166738096071</v>
       </c>
       <c r="E4" t="n">
-        <v>6.9030856233914015</v>
+        <v>6.612648167045657</v>
       </c>
       <c r="F4" t="n">
-        <v>6.401123239510027</v>
+        <v>6.251193697746722</v>
       </c>
     </row>
     <row r="5">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>4.771708450540719</v>
+        <v>4.734756045397359</v>
       </c>
       <c r="C5" t="n">
-        <v>2.795811483244036</v>
+        <v>2.8005688133817963</v>
       </c>
       <c r="D5" t="n">
-        <v>2.4215171485944103</v>
+        <v>2.2555708341947636</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8283143113179511</v>
+        <v>0.7865798184454649</v>
       </c>
       <c r="F5" t="n">
-        <v>1.946903732189385</v>
+        <v>1.9212283514551105</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>24.957808005007887</v>
+        <v>24.30005028998928</v>
       </c>
       <c r="C6" t="n">
-        <v>20.299967532874113</v>
+        <v>20.676067237783922</v>
       </c>
       <c r="D6" t="n">
-        <v>19.018535242102548</v>
+        <v>19.028636595909386</v>
       </c>
       <c r="E6" t="n">
-        <v>14.947949972649086</v>
+        <v>14.898712625482954</v>
       </c>
       <c r="F6" t="n">
-        <v>18.17958191629393</v>
+        <v>18.08274608283083</v>
       </c>
     </row>
     <row r="7">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>13.34561899965087</v>
+        <v>13.059881778385057</v>
       </c>
       <c r="C7" t="n">
-        <v>1.2742312334757318</v>
+        <v>1.2828585390225573</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5646607295286514</v>
+        <v>1.6650479463189323</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6087239691317426</v>
+        <v>0.6106254097354231</v>
       </c>
       <c r="F7" t="n">
-        <v>1.002156429802938</v>
+        <v>1.0140680683211465</v>
       </c>
     </row>
   </sheetData>
